--- a/Excel/dc_offset.xlsx
+++ b/Excel/dc_offset.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjSZ5GJ0CW7RaLhgNXpfYQDlLGv3Q=="/>
@@ -279,35 +282,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,9 +323,21 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -331,39 +351,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -553,26 +575,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="70.13"/>
-    <col customWidth="1" min="3" max="3" width="332.38"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="70.125" customWidth="1"/>
+    <col min="3" max="3" width="332.375" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,9 +604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -591,9 +615,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -602,9 +626,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -613,9 +637,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -624,9 +648,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -635,9 +659,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -646,9 +670,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -657,9 +681,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -668,9 +692,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -679,9 +703,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -690,9 +714,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -701,9 +725,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -712,9 +736,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -723,9 +747,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
@@ -734,9 +758,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -745,9 +769,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -756,9 +780,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
@@ -767,9 +791,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
@@ -778,9 +802,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
@@ -789,9 +813,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
@@ -800,9 +824,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
@@ -811,9 +835,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
@@ -822,9 +846,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
@@ -833,9 +857,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>47</v>
@@ -844,9 +868,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
@@ -855,9 +879,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>51</v>
@@ -866,9 +890,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>53</v>
@@ -877,9 +901,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>55</v>
@@ -888,9 +912,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>56</v>
@@ -899,9 +923,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>58</v>
@@ -910,9 +934,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>60</v>
@@ -921,20 +945,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
@@ -943,9 +967,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>66</v>
@@ -954,9 +978,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>68</v>
@@ -965,9 +989,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>70</v>
@@ -976,9 +1000,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>72</v>
@@ -987,9 +1011,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>74</v>
@@ -998,9 +1022,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>76</v>
@@ -1009,9 +1033,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>78</v>
@@ -1020,9 +1044,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>80</v>
@@ -1031,9 +1055,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>82</v>
@@ -1042,9 +1066,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>84</v>
@@ -1053,10 +1077,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2010,9 +2034,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/dc_offset.xlsx
+++ b/Excel/dc_offset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>English</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Right-click over the speaker icon in the System Tray &gt; Recording Devices, or click Start &gt; Control Panel &gt; Hardware and Sound &gt; Sound, then the "Recording" tab</t>
   </si>
   <si>
-    <t>सिस्टम ट्रे&gt; रेकॉर्डिंग डिव्हाइसमधील स्पीकर चिन्हावर राइट-क्लिक करा किंवा प्रारंभ&gt; नियंत्रण पॅनेल&gt; हार्डवेअर आणि ध्वनी&gt; आवाज क्लिक करा, नंतर "रेकॉर्डिंग" टॅब</t>
-  </si>
-  <si>
     <t>Right-click over empty space, show disabled and disconnected devices, then right-click over each device and enable it</t>
   </si>
   <si>
@@ -240,33 +237,12 @@
     <t>Audacity's DC offset removal method could potentially create a new offset and therefore a click in some rare cases. Two cases are noteworthy:</t>
   </si>
   <si>
-    <t>ऑडीसिटीची डीसी ऑफसेट काढण्याची पद्धत संभाव्यतः नवीन ऑफसेट तयार करू शकते आणि म्हणूनच क्वचित प्रसंगी क्लिक बनते. दोन प्रकरणे उल्लेखनीय आहेतः</t>
-  </si>
-  <si>
     <t>where only part of the audio is offset, for example if absolute silence with no offset has been inserted into an offset recording.</t>
   </si>
   <si>
-    <t>जेथे फक्त ऑडिओचा एक भाग ऑफसेट केला जातो, उदाहरणार्थ ऑफसेट रेकॉर्डिंगमध्ये ऑफसेटशिवाय परिपूर्ण शांतता प्रविष्ट केली असल्यास.</t>
-  </si>
-  <si>
-    <t>where the offset is not constant. Strictly speaking this is not DC offset, it is sub-sonic modulation or</t>
-  </si>
-  <si>
-    <t>जेथे ऑफसेट स्थिर नसते. काटेकोरपणे बोलणे हे डीसी ऑफसेट नाही, ते उप-सोनिक मोड्यूलेशन आहे किंवा</t>
-  </si>
-  <si>
-    <t>"slowly changing DC bias", but over a short time period it looks very much like DC offset.</t>
-  </si>
-  <si>
-    <t>"हळू हळू डीसी पूर्वाग्रह बदलणे", परंतु थोड्या काळासाठी हे डीसी ऑफसेटसारखे दिसते.</t>
-  </si>
-  <si>
     <t>In the case where some sections of the audio are clearly offset and some not, the solution in Audacity is to first carefully select each section of non-offset audio then use Edit &gt; Clip Boundaries &gt; Split New to split it a new track. Then remove the offset from the remaining audio, and paste the non-offset audio back. Use Select &gt; Region &gt; Ends to Zero Crossings before split and paste if the non-offset audio is not absolute silence.</t>
   </si>
   <si>
-    <t>ज्या प्रकरणात ऑडिओचे काही विभाग स्पष्टपणे ऑफसेट केले गेले आहेत आणि काही नाही, ऑडॅसिटीमधील समाधान प्रथम नॉन-ऑफसेट ऑडिओचा प्रत्येक विभाग काळजीपूर्वक निवडणे आहे नंतर नवीन ट्रॅकचे विभाजन करण्यासाठी संपादन&gt; क्लिप सीमा&gt; स्प्लिट न्यू वापरा. नंतर उर्वरित ऑडिओमधून ऑफसेट काढा आणि नॉन-ऑफसेट ऑडिओ परत पेस्ट करा. नॉन-ऑफसेट ऑडिओ परिपूर्ण शांतता नसल्यास विभाजित होण्यापूर्वी निवडा&gt; प्रदेश&gt; झिरो क्रॉसिंग्जवर समाप्त होवून पेस्ट करा आणि पेस्ट करा.</t>
-  </si>
-  <si>
     <t>High-Pass DC removal may well remove offset without adding new clicks if the offset is not constant.</t>
   </si>
   <si>
@@ -277,6 +253,27 @@
   </si>
   <si>
     <t>टीपः इव्हेंटनंतर ऑफसेट काढून टाकणे हेडरूमचे मूळ नुकसान पुन्हा ठेवत नाही. ऑफसेटशिवाय जोरात रेकॉर्ड करणे शक्य झाले असते, जेणेकरून जास्त डायनॅमिक श्रेणी आणि मोठ्या सिग्नल-टू-शोर रेशोसह. हार्डवेअरमध्ये ऑफसेटचा स्रोत शोधण्याचा आणि निश्चित करण्याचा प्रयत्न करणे नेहमीच श्रेयस्कर आहे. आपले साउंड डिव्हाइस ड्राइव्हर्स अद्यतनित करणे कदाचित देखील कदाचित मदत करेल.</t>
+  </si>
+  <si>
+    <t>प्रणाली तबक &gt; ध्वनिमुद्रण डिव्हाइसमधील स्पीकर चिन्हावर उजवे-क्लिक करा किंवा प्रारंभ&gt; नियंत्रण पॅनेल&gt; हार्डवेअर आणि ध्वनी&gt; आवाज क्लिक करा, नंतर "ध्वनिमुद्रण" टॅब</t>
+  </si>
+  <si>
+    <t>ओड्यासिटीची डीसी ऑफसेट काढण्याची पद्धत संभाव्यतः नवीन ऑफसेट तयार करू शकते आणि म्हणूनच क्वचित प्रसंगी क्लिक बनते. दोन प्रकरणे उल्लेखनीय आहेतः</t>
+  </si>
+  <si>
+    <t>जेथे फक्त ध्वनीचा एक भाग ऑफसेट केला जातो, उदाहरणार्थ ऑफसेट ध्वनिमुद्रणमध्ये ऑफसेटशिवाय परिपूर्ण शांतता प्रविष्ट केली असल्यास.</t>
+  </si>
+  <si>
+    <t>where the offset is not constant. Strictly speaking this is not DC offset, it is sub-sonic modulation or  "slowly changing DC bias", but over a short time period it looks very much like DC offset.</t>
+  </si>
+  <si>
+    <t>जेथे ऑफसेट स्थिर नसते. कठोरपणे बोलणे हे डीसी ऑफसेट नाही, ते उप-सोनिक मोड्यूलेशन किंवा "हळू हळू डीसी बायस बदलणे" आहे, परंतु थोड्या काळासाठी ते डीसी ऑफसेटसारखे दिसते.</t>
+  </si>
+  <si>
+    <t>ज्या प्रकरणात ध्वनीचे काही विभाग स्पष्टपणे ऑफसेट केले गेले आहेत आणि काही नाही, ओड्यासिटीमधील समाधान प्रथम नॉन-ऑफसेट ध्वनीचा प्रत्येक विभाग काळजीपूर्वक निवडणे आहे नंतर नवीन गीतपट्टाचे विभाजन करण्यासाठी संपादन&gt; क्लिप सीमा&gt; नवीन स्प्लिट वापरा. नंतर उर्वरित ध्वनीमधून ऑफसेट काढा आणि नॉन-ऑफसेट ध्वनी परत पेस्ट करा. नॉन-ऑफसेट ध्वनी परिपूर्ण शांतता नसल्यास विभाजित होण्यापूर्वी निवडा&gt; प्रदेश&gt; झिरो क्रॉसिंग्जवर समाप्त होवून पेस्ट करा आणि पेस्ट करा.</t>
+  </si>
+  <si>
+    <t>टीपः घाटानेनंतर ऑफसेट काढून टाकणे मुख्यालयाचे मूळ नुकसान पुन्हा ठेवत नाही. ऑफसेटशिवाय जोरात ध्वनिमुद्रण करणे शक्य झाले असते, जेणेकरून जास्त डायनॅमिक श्रेणी आणि मोठ्या सिग्नल-ते-गोंगाट प्रमाणासह . हार्डवेअरमध्ये ऑफसेटचा स्रोत शोधण्याचा आणि निश्चित करण्याचा प्रयत्न करणे नेहमीच श्रेयस्कर आहे. आपले ध्वनी डिव्हाइस ड्राइव्हर्स अद्यतनित करणे कदाचित देखील कदाचित मदत करेल.</t>
   </si>
 </sst>
 </file>
@@ -365,11 +362,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -945,15 +942,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -961,10 +958,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -972,10 +969,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -983,10 +980,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -994,10 +991,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -1005,10 +1002,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -1016,10 +1013,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -1027,10 +1024,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -1038,10 +1035,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -1049,10 +1046,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -1060,10 +1057,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -1071,10 +1068,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>

--- a/Excel/dc_offset.xlsx
+++ b/Excel/dc_offset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>English</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Note: Removing offset after the event does not reinstate the original loss of headroom. Without offset it would have been possible to record louder, so with greater dynamic range and greater signal-to-noise ratio. It is always preferable to try to find and fix the source of the offset in the hardware. Updating your sound device drivers might help, too.</t>
-  </si>
-  <si>
-    <t>टीपः इव्हेंटनंतर ऑफसेट काढून टाकणे हेडरूमचे मूळ नुकसान पुन्हा ठेवत नाही. ऑफसेटशिवाय जोरात रेकॉर्ड करणे शक्य झाले असते, जेणेकरून जास्त डायनॅमिक श्रेणी आणि मोठ्या सिग्नल-टू-शोर रेशोसह. हार्डवेअरमध्ये ऑफसेटचा स्रोत शोधण्याचा आणि निश्चित करण्याचा प्रयत्न करणे नेहमीच श्रेयस्कर आहे. आपले साउंड डिव्हाइस ड्राइव्हर्स अद्यतनित करणे कदाचित देखील कदाचित मदत करेल.</t>
   </si>
   <si>
     <t>प्रणाली तबक &gt; ध्वनिमुद्रण डिव्हाइसमधील स्पीकर चिन्हावर उजवे-क्लिक करा किंवा प्रारंभ&gt; नियंत्रण पॅनेल&gt; हार्डवेअर आणि ध्वनी&gt; आवाज क्लिक करा, नंतर "ध्वनिमुद्रण" टॅब</t>
@@ -579,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -950,7 +947,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -1005,7 +1002,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -1016,7 +1013,7 @@
         <v>72</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -1024,10 +1021,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -1038,7 +1035,7 @@
         <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -1060,20 +1057,10 @@
         <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="45" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
@@ -2029,7 +2016,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
